--- a/explainable_low_disc/val/class_label.xlsx
+++ b/explainable_low_disc/val/class_label.xlsx
@@ -540,7 +540,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -884,7 +884,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -1132,7 +1132,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -1924,7 +1924,7 @@
         <v>185</v>
       </c>
       <c r="B187" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188">
@@ -3740,7 +3740,7 @@
         <v>412</v>
       </c>
       <c r="B414" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415">
@@ -4412,7 +4412,7 @@
         <v>496</v>
       </c>
       <c r="B498" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499">
